--- a/data/income_statement/2digits/size/25_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/25_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,878 +841,993 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1533331.14897</v>
+        <v>1690980.53646</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1603766.93731</v>
+        <v>1783966.21429</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2148389.27949</v>
+        <v>2344130.60216</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1827033.77364</v>
+        <v>2072429.51297</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1950376.47871</v>
+        <v>2265787.32858</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2061612.65849</v>
+        <v>2446921.71604</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2206548.23154</v>
+        <v>2705064.61841</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2285257.31469</v>
+        <v>2861814.01685</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2320492.46832</v>
+        <v>2975466.84399</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6942197.06016</v>
+        <v>7732041.068289999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7201821.62832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8520926.40332</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9480118.376</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1406801.02915</v>
+        <v>1551822.47228</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1512304.38219</v>
+        <v>1673632.96267</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1689903.53493</v>
+        <v>1865362.27773</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1699629.54592</v>
+        <v>1916896.2031</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1827802.28925</v>
+        <v>2114045.99086</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1952876.00583</v>
+        <v>2310346.85422</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2084602.67225</v>
+        <v>2556586.85987</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2150965.35879</v>
+        <v>2685997.343390001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2160968.9461</v>
+        <v>2772297.39038</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6361683.164100001</v>
+        <v>7087650.67722</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6581854.214729999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7780027.61335</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8710460.833000001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>110675.54698</v>
+        <v>116801.79595</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>78197.38741</v>
+        <v>89110.07530000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>440192.52659</v>
+        <v>455002.0904700001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>108904.09035</v>
+        <v>127899.80793</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>106938.22731</v>
+        <v>128367.40246</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>90624.22996000001</v>
+        <v>111432.63253</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>102660.60364</v>
+        <v>118998.81813</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>109382.78524</v>
+        <v>137013.45945</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>131616.85804</v>
+        <v>156586.14726</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>502537.53053</v>
+        <v>542710.5666700001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>542185.5821900001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>633310.3590999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>640916.225</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>15854.57284</v>
+        <v>22356.26823</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>13265.16771</v>
+        <v>21223.17632</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>18293.21797</v>
+        <v>23766.23396</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>18500.13737</v>
+        <v>27633.50194000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15635.96215</v>
+        <v>23373.93526</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>18112.4227</v>
+        <v>25142.22929</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>19284.95565</v>
+        <v>29478.94041</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>24909.17066</v>
+        <v>38803.21401</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>27906.66418</v>
+        <v>46583.30635</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>77976.36552999998</v>
+        <v>101679.8244</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>77781.83140000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>107588.43087</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>128741.318</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>15618.80158</v>
+        <v>17575.97172</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>11140.72067</v>
+        <v>14051.17634</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>10122.69987</v>
+        <v>11717.82789</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>12473.51768</v>
+        <v>14678.60175</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>13456.75139</v>
+        <v>17097.44704</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>15537.70504</v>
+        <v>19243.34149</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>14002.83306</v>
+        <v>18531.73511</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>14984.19408</v>
+        <v>19413.21902</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11404.6007</v>
+        <v>15397.30818</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>44271.50961</v>
+        <v>51459.2203</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>40711.86465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>56166.30937</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>669303.666</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>13463.68476</v>
+        <v>14537.57479</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9970.161749999999</v>
+        <v>11428.12575</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>8813.630090000001</v>
+        <v>10348.84302</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>10517.54464</v>
+        <v>12607.34842</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>11215.61199</v>
+        <v>14072.11744</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>9354.62369</v>
+        <v>12210.90803</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11076.6446</v>
+        <v>14656.34316</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>12270.0216</v>
+        <v>15521.0403</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>9277.198809999998</v>
+        <v>12433.85791</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>38501.97782</v>
+        <v>43640.20795</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>36004.5583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>48137.14467</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>659934.448</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1676.83822</v>
+        <v>2540.42258</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>952.36173</v>
+        <v>1755.84063</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>754.57839</v>
+        <v>794.7193599999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1537.97711</v>
+        <v>1576.6242</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1698.93201</v>
+        <v>2245.42089</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5312.79641</v>
+        <v>5957.975640000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2574.00562</v>
+        <v>2790.40593</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2169.82314</v>
+        <v>2664.38999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1319.6426</v>
+        <v>1906.94605</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3027.63714</v>
+        <v>3308.29626</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2774.86282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4854.48783</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4112.664</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>478.2786000000001</v>
+        <v>497.97435</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>218.19719</v>
+        <v>867.2099599999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>554.49139</v>
+        <v>574.2655100000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>417.9959299999999</v>
+        <v>494.62913</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>542.20739</v>
+        <v>779.9087099999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>870.28494</v>
+        <v>1074.45782</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>352.18284</v>
+        <v>1084.98602</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>544.34934</v>
+        <v>1227.78873</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>807.7592900000001</v>
+        <v>1056.50422</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2741.89465</v>
+        <v>4510.71609</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1932.44353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3174.67687</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5256.554</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1517712.34739</v>
+        <v>1673404.56474</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1592626.21664</v>
+        <v>1769915.03795</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2138266.57962</v>
+        <v>2332412.774269999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1814560.25596</v>
+        <v>2057750.91122</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1936919.72732</v>
+        <v>2248689.88154</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2046074.95345</v>
+        <v>2427678.37455</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2192545.39848</v>
+        <v>2686532.8833</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2270273.12061</v>
+        <v>2842400.79783</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2309087.86762</v>
+        <v>2960069.53581</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6897925.550549999</v>
+        <v>7680581.84799</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7161109.76367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8464760.093950002</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8810814.710000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1247077.58506</v>
+        <v>1368644.26563</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1301645.88124</v>
+        <v>1436725.378</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1822530.52993</v>
+        <v>1980309.3828</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1475586.37795</v>
+        <v>1666509.45271</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1554394.79445</v>
+        <v>1796509.61244</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1653350.48246</v>
+        <v>1948007.04924</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1789072.82188</v>
+        <v>2172912.82029</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1825527.12635</v>
+        <v>2274887.07439</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1862848.76445</v>
+        <v>2360099.42199</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5716873.8674</v>
+        <v>6346232.585190001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5920691.893629999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6980775.776569999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7242677.994</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>654678.11441</v>
+        <v>726307.09071</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>690234.24514</v>
+        <v>770374.47794</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>829555.84771</v>
+        <v>928261.1513</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>786487.45214</v>
+        <v>892803.2964</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>914748.6393800001</v>
+        <v>1063539.02088</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>954329.15039</v>
+        <v>1144027.24936</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>964245.4723799999</v>
+        <v>1216568.5479</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1016035.88105</v>
+        <v>1309314.08028</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1052937.17386</v>
+        <v>1391000.24793</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3378489.60476</v>
+        <v>3770284.4462</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3443459.00187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4101583.7031</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4305740.316</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>474887.94732</v>
+        <v>511052.20654</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>477940.68786</v>
+        <v>516831.29048</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>833342.2416600001</v>
+        <v>864035.33679</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>537067.13133</v>
+        <v>589500.35742</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>458134.64014</v>
+        <v>508476.01638</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>497318.50595</v>
+        <v>552358.82336</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>616974.63098</v>
+        <v>692798.1383399999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>584288.77149</v>
+        <v>677280.6759800001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>553052.66119</v>
+        <v>646531.8112</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1716267.44233</v>
+        <v>1885068.35039</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1733815.74919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2014050.83837</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2100437.577</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>114708.47798</v>
+        <v>127904.52114</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>129914.16982</v>
+        <v>145347.43559</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>154806.91728</v>
+        <v>179737.10165</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>149232.74172</v>
+        <v>180015.09375</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>177764.42377</v>
+        <v>219325.35435</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>197096.5217</v>
+        <v>244983.33312</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>200035.03108</v>
+        <v>251185.58982</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>218587.34004</v>
+        <v>277058.12277</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>245956.47699</v>
+        <v>308052.2408</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>593291.0913000001</v>
+        <v>654481.2988000001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>714321.39775</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>826882.28495</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>798727.115</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2803.045349999999</v>
+        <v>3380.44724</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3556.77842</v>
+        <v>4172.17399</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>4825.523279999999</v>
+        <v>8275.79306</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2799.05276</v>
+        <v>4190.70514</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3747.09116</v>
+        <v>5169.22083</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4606.304419999999</v>
+        <v>6637.6434</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>7817.68744</v>
+        <v>12360.54423</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6615.133769999999</v>
+        <v>11234.19536</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>10902.45241</v>
+        <v>14515.12206</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>28825.72901</v>
+        <v>36398.4898</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>29095.74482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38258.95015</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>37772.986</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>270634.76233</v>
+        <v>304760.29911</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>290980.3354</v>
+        <v>333189.6599500001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>315736.04969</v>
+        <v>352103.39147</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>338973.87801</v>
+        <v>391241.45851</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>382524.93287</v>
+        <v>452180.2691</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>392724.47099</v>
+        <v>479671.32531</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>403472.5766</v>
+        <v>513620.06301</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>444745.99426</v>
+        <v>567513.72344</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>446239.10317</v>
+        <v>599970.11382</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1181051.68315</v>
+        <v>1334349.2628</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1240417.87004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1483984.31738</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1568136.716</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>225324.96051</v>
+        <v>263007.07395</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>233361.97707</v>
+        <v>276574.74894</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>246649.26964</v>
+        <v>290694.84571</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>270703.0549</v>
+        <v>326291.6250999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>304828.73896</v>
+        <v>373958.29003</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>307973.75788</v>
+        <v>393915.08114</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>317063.7418</v>
+        <v>421436.64657</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>370714.31911</v>
+        <v>503109.49778</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>363804.42483</v>
+        <v>514660.17445</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>842401.6724400001</v>
+        <v>987572.0131</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>932101.51482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1163109.94627</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1171248.889</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1335.16367</v>
+        <v>1392.04318</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1187.3337</v>
+        <v>1688.79122</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>912.81359</v>
+        <v>1106.12293</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1435.35426</v>
+        <v>1854.8603</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>752.80406</v>
+        <v>900.4821200000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1122.63166</v>
+        <v>1599.45776</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1142.10703</v>
+        <v>1748.91865</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>658.92389</v>
+        <v>884.6452099999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>964.28394</v>
+        <v>1326.7809</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1805.12155</v>
+        <v>2107.51129</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2311.88459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3569.18278</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2529.612</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>33049.62405</v>
+        <v>37288.56001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>33039.35904</v>
+        <v>38783.99974</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>33845.1951</v>
+        <v>38884.24435</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>36252.1012</v>
+        <v>42766.31651</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>37956.72082</v>
+        <v>46601.85336</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>39016.022</v>
+        <v>49020.71172</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>38856.76991</v>
+        <v>49251.97412000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>46737.79509000001</v>
+        <v>61926.13706</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>43281.84604</v>
+        <v>59880.57304</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>114511.77564</v>
+        <v>128354.8924</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>128498.11165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>154395.50366</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>139773.804</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>190940.17279</v>
+        <v>224326.47076</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>199135.28433</v>
+        <v>236101.95798</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>211891.2609500001</v>
+        <v>250704.47843</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>233015.59944</v>
+        <v>281670.44829</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>266119.2140800001</v>
+        <v>326455.95455</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>267835.10422</v>
+        <v>343294.91166</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>277064.86486</v>
+        <v>370435.7537999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>323317.60013</v>
+        <v>440298.71551</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>319558.29485</v>
+        <v>453452.82051</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>726084.7752499999</v>
+        <v>857109.60941</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>801291.5185799999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1005145.25983</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1028945.473</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>45309.80182</v>
+        <v>41753.22515999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>57618.35833</v>
+        <v>56614.91101</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>69086.78005000002</v>
+        <v>61408.54576</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>68270.82311000001</v>
+        <v>64949.83341000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>77696.19391</v>
+        <v>78221.97906999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>84750.71311</v>
+        <v>85756.24417000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>86408.8348</v>
+        <v>92183.41644</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>74031.67515000001</v>
+        <v>64404.22566</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>82434.67834</v>
+        <v>85309.93937000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>338650.01071</v>
+        <v>346777.2497</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>308316.35522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>320874.37111</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>396887.827</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>9598.480950000001</v>
+        <v>29864.99806</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10084.32031</v>
+        <v>76775.78616</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>8926.369649999999</v>
+        <v>36333.40434</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>8249.09669</v>
+        <v>39903.91434999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8204.95861</v>
+        <v>37286.61366999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6966.29101</v>
+        <v>46072.9391</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>10633.76247</v>
+        <v>50500.43781999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>13499.24926</v>
+        <v>57177.39765</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>10911.21244</v>
+        <v>57305.55806</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>71458.33485</v>
+        <v>192343.99301</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>52899.13283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>178067.54081</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>200839.393</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>101.07167</v>
+        <v>382.07166</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>30.03716</v>
+        <v>6223.71844</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>79.13976</v>
+        <v>191.85435</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>51.39507</v>
+        <v>10099.53777</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>50</v>
+        <v>1631.09717</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1.24717</v>
+        <v>1106.14308</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>2903.76596</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2.8686</v>
+        <v>2865.16499</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>278.20893</v>
+        <v>3382.45813</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1.14</v>
+        <v>17995.55351</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>35690.80627</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>8206.665000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>32.92919999999999</v>
+        <v>1673.4314</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0.92871</v>
+        <v>799.62201</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
@@ -1820,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>120.13044</v>
+        <v>470.31473</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>1019.52535</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>351.56357</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>256.12745</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>741.38354</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1069.34219</v>
+        <v>6293.56885</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>934.0094399999999</v>
+        <v>5578.80517</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>686.1566000000001</v>
+        <v>7203.09158</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>952.1130700000001</v>
+        <v>5226.94006</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>955.80233</v>
+        <v>5835.835669999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1005.75057</v>
+        <v>5993.320629999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1236.86192</v>
+        <v>7215.03684</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>881.5208</v>
+        <v>7828.075279999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1151.2802</v>
+        <v>12205.72952</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>6405.216780000001</v>
+        <v>30978.53248000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>8224.445210000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>39080.4132</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18391.31</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>392.62739</v>
+        <v>441.12049</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>267.29669</v>
+        <v>295.79007</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>231.94071</v>
+        <v>236.58647</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>300.84086</v>
+        <v>308.22086</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>95.33857999999999</v>
+        <v>95.33858000000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>70.62232</v>
+        <v>2731.37005</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>23.46999</v>
+        <v>263.81545</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>121.97604</v>
+        <v>210.276</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>55.54356</v>
+        <v>55.63356</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>42.41302</v>
+        <v>42.81101</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>282.9187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>282.92628</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>510.624</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>511.47735</v>
+        <v>984.2533100000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>223.48709</v>
+        <v>297.74695</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>165.70801</v>
+        <v>301.12412</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>378.75826</v>
+        <v>413.05931</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>436.00555</v>
+        <v>835.5006599999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>405.70741</v>
+        <v>741.6954899999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>77.21445</v>
+        <v>104.63818</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>308.4859</v>
+        <v>324.83779</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>268.8272900000001</v>
+        <v>1207.09223</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>533.2344499999999</v>
+        <v>580.23559</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>630.90563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>691.76974</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2134.677</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>172.27745</v>
+        <v>411.49033</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>300.75645</v>
+        <v>37160.40910000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>196.56</v>
+        <v>308.7599</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>154.09774</v>
+        <v>617.97826</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>96.22099999999999</v>
+        <v>3244.1088</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>225.0212</v>
+        <v>341.29308</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>107.56521</v>
+        <v>142.40309</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>373.00056</v>
+        <v>666.2968499999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>167.73979</v>
+        <v>484.83246</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>439.20329</v>
+        <v>1863.41796</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>619.09785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1798.60996</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1255.505</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3174.53025</v>
+        <v>8574.40668</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2472.34043</v>
+        <v>9797.606820000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3187.58083</v>
+        <v>9520.272499999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1739.65226</v>
+        <v>5711.03964</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3115.95179</v>
+        <v>12609.90876</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2860.05903</v>
+        <v>7099.03449</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5101.27543</v>
+        <v>19935.22841</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5441.043189999999</v>
+        <v>19291.28256</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4004.49567</v>
+        <v>14701.91542</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>47662.72872</v>
+        <v>106847.47189</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>23428.65901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>53529.43323999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>121209.954</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>11.17726</v>
@@ -2054,10 +2100,10 @@
         <v>12.97698</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>26.6361</v>
+        <v>40.57451</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>7.37596</v>
+        <v>14.15892</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0.04441</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>73.63229999999999</v>
+        <v>73.6323</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>82.17580000000001</v>
@@ -2090,22 +2141,22 @@
         <v>127.33045</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>132.39227</v>
+        <v>149.38895</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>50.95915000000001</v>
+        <v>95.78856</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>31.03945</v>
+        <v>31.50943</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>9.89757</v>
+        <v>150.31662</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>30.83566</v>
+        <v>239.22987</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>15.39042</v>
+        <v>21.67042</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>494.85643</v>
@@ -2113,245 +2164,280 @@
       <c r="M34" s="48" t="n">
         <v>131.32125</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>242.295</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4059.41589</v>
+        <v>11019.84578</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5762.157299999999</v>
+        <v>16528.78056</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4251.95329</v>
+        <v>18444.38497</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4526.87018</v>
+        <v>17364.77252</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3257.91367</v>
+        <v>12428.14623</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2359.467900000001</v>
+        <v>26994.88858</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4077.433489999999</v>
+        <v>19785.18886</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6337.941709999999</v>
+        <v>25399.09394</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4960.33209</v>
+        <v>24980.70438</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>15878.18773</v>
+        <v>33539.75971</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>18840.40164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>46120.87733</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>48887.159</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>7514.30824</v>
+        <v>15758.71555</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>6657.86145</v>
+        <v>15961.10395</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6827.22809</v>
+        <v>20962.64933</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>10634.92756</v>
+        <v>20002.77494</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6916.402609999999</v>
+        <v>16811.84083</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6787.167240000001</v>
+        <v>14661.93648</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9255.501550000001</v>
+        <v>19503.89394</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>9916.63898</v>
+        <v>23917.72736</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>9262.32877</v>
+        <v>25229.71501</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>69146.41378999999</v>
+        <v>147105.8006</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>34737.375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>71696.41950999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>169887.621</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>245.31879</v>
+        <v>276.98119</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>259.63559</v>
+        <v>434.5146</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>104.58327</v>
+        <v>186.79275</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>214.39781</v>
+        <v>284.75913</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>242.05211</v>
+        <v>310.75469</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>267.04238</v>
+        <v>482.0094399999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>402.64661</v>
+        <v>472.27175</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>166.32891</v>
+        <v>292.9314</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>227.70377</v>
+        <v>326.61051</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>787.88482</v>
+        <v>924.5073400000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2010.92383</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2109.40332</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>678.023</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1840.34831</v>
+        <v>3385.98319</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1702.44016</v>
+        <v>2820.35067</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1019.52947</v>
+        <v>1341.34582</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3106.47831</v>
+        <v>3436.47298</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1331.24435</v>
+        <v>1808.23614</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>711.4013100000001</v>
+        <v>863.5700400000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>855.0700899999999</v>
+        <v>1301.33666</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1094.89061</v>
+        <v>1885.43001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1160.43263</v>
+        <v>1957.42882</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3396.54937</v>
+        <v>23439.59383</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4006.88317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5015.830120000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>8731.58</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>86.0913</v>
+        <v>200.96055</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>76.03712</v>
+        <v>99.95367999999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>62.00278</v>
+        <v>77.91343000000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>41.75584</v>
+        <v>51.27162999999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>54.95058</v>
+        <v>81.42511</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>36.61674</v>
+        <v>36.62651</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>10.46732</v>
+        <v>36.49919999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>21.08592</v>
+        <v>4506.96725</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>18.14942</v>
+        <v>26.29433</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>371.08511</v>
+        <v>1434.47261</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>121.95574</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>143.02714</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>120.376</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2854.21759</v>
+        <v>8568.046649999998</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2603.24089</v>
+        <v>7263.553420000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2623.40834</v>
+        <v>10970.91894</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2003.43248</v>
+        <v>5858.869720000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3218.37122</v>
+        <v>8363.80386</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2887.28583</v>
+        <v>7981.2437</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5125.529289999999</v>
+        <v>12137.88178</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5772.80136</v>
+        <v>11363.65712</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>4543.58345</v>
+        <v>14913.15651</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>53540.57552</v>
+        <v>106191.07447</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>23075.69079</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>54585.07291</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>138479.328</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>65.66606999999999</v>
@@ -2369,10 +2455,10 @@
         <v>5.9322</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0.22355</v>
+        <v>0.61657</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2.40094</v>
+        <v>8.413639999999999</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>0.52395</v>
@@ -2384,13 +2470,18 @@
         <v>18.18648</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>0.15801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>239.7297</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0.139</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>53.97164</v>
@@ -2399,10 +2490,10 @@
         <v>19.98072</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>30.51759</v>
+        <v>35.42347</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>54.12857000000001</v>
+        <v>72.38217999999999</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>44.45177</v>
@@ -2411,607 +2502,685 @@
         <v>11.02433</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>2e-05</v>
+        <v>32.16084</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.5085500000000001</v>
+        <v>12.50855</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>2e-05</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>52.44214999999999</v>
+        <v>52.44215</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>23.2285</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2368.69454</v>
+        <v>3207.10626</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1982.55532</v>
+        <v>5308.77921</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2973.64908</v>
+        <v>8336.717359999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5199.559279999999</v>
+        <v>10283.84403</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2019.40038</v>
+        <v>6197.237059999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2873.5731</v>
+        <v>5286.845890000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2859.38728</v>
+        <v>5515.33007</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2860.49968</v>
+        <v>5855.70908</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3310.46494</v>
+        <v>8004.230280000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10979.69034</v>
+        <v>15045.52372</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5498.53496</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9580.12782</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>21876.275</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>15094.9925</v>
+        <v>21733.11306</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>11638.37691</v>
+        <v>17045.81933</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>12231.73239</v>
+        <v>18036.79955</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>14795.36841</v>
+        <v>22815.69501</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>14898.41799</v>
+        <v>23911.70024</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16141.88675</v>
+        <v>27197.28469</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>17134.79239</v>
+        <v>29781.97779</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>20284.80003</v>
+        <v>38069.138</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>18855.19163</v>
+        <v>42624.45472</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>76790.39224000002</v>
+        <v>107813.34285</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>79175.75631</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>119656.72714</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>110475.841</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>14366.45122</v>
+        <v>20520.57706</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>11091.01376</v>
+        <v>16390.33223</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>11779.39615</v>
+        <v>17488.42728</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>14166.58736</v>
+        <v>21972.41171</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>14202.93533</v>
+        <v>22916.47527</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>15442.76249</v>
+        <v>26152.89771</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>16461.6468</v>
+        <v>28635.47858</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>19276.16247</v>
+        <v>35140.05025</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>18385.61666</v>
+        <v>40619.89973</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>74172.41684000001</v>
+        <v>104603.32801</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>76448.03327</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>115634.95381</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>106364.22</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>728.5412799999999</v>
+        <v>1212.536</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>547.36315</v>
+        <v>655.4871000000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>452.33624</v>
+        <v>548.3722700000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>628.7810500000001</v>
+        <v>843.2833000000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>695.4826599999999</v>
+        <v>995.2249699999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>699.12426</v>
+        <v>1044.38698</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>673.1455900000001</v>
+        <v>1146.49921</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1008.63756</v>
+        <v>2929.08775</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>469.57497</v>
+        <v>2004.55499</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2617.9754</v>
+        <v>3210.01484</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2727.72304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4021.77333</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4111.621</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>32298.98203</v>
+        <v>34126.39461</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>49406.44028</v>
+        <v>100383.77389</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>58954.18922</v>
+        <v>58742.50122</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>51089.62383</v>
+        <v>62035.27781</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>64086.33192</v>
+        <v>74785.05167</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>68787.95013000001</v>
+        <v>89969.96209999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>70652.30332999998</v>
+        <v>93397.98253000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>57329.4854</v>
+        <v>59594.75795000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>65228.37038</v>
+        <v>74761.32770000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>264171.53953</v>
+        <v>284202.09926</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>247302.35674</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>307588.76527</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>317363.758</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7309.52659</v>
+        <v>11460.38252</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7819.18516</v>
+        <v>11954.69681</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8142.524840000001</v>
+        <v>21648.0474</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11314.55652</v>
+        <v>15242.73674</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9438.744949999998</v>
+        <v>23339.28859</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10750.20493</v>
+        <v>25913.40998</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>11927.46962</v>
+        <v>32845.31756</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>15170.15781</v>
+        <v>62586.8486</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>15086.9299</v>
+        <v>53563.29491</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>42533.85027</v>
+        <v>78157.22957</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>49557.94536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>81531.39877</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>137113.651</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>151.58225</v>
+        <v>176.1292</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>47.74545</v>
+        <v>127.20283</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>71.91851000000001</v>
+        <v>330.72331</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>63.32386</v>
+        <v>73.98220999999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>498.4340799999999</v>
+        <v>836.67225</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>83.09938000000001</v>
+        <v>358.18711</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>76.71195999999999</v>
+        <v>102.21674</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>87.37483999999999</v>
+        <v>715.73821</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>209.51109</v>
+        <v>1658.49106</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>735.3068400000001</v>
+        <v>744.52685</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>668.42653</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>711.6344099999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1348.921</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7157.94434</v>
+        <v>11284.25332</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7771.439709999999</v>
+        <v>11827.49398</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8070.606330000001</v>
+        <v>21317.32409</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11251.23266</v>
+        <v>15168.75453</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8940.310870000001</v>
+        <v>22502.61634</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10667.10555</v>
+        <v>25555.22287</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>11850.75766</v>
+        <v>32743.10082</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>15082.78297</v>
+        <v>61871.11039</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>14877.41881</v>
+        <v>51904.80385</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>41798.54343</v>
+        <v>77412.70272</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>48889.51883</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>80819.76435999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>135764.73</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>10789.78858</v>
+        <v>17680.20843</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>13815.98914</v>
+        <v>18523.71602</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>63505.18665</v>
+        <v>100343.87997</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>24288.93062</v>
+        <v>32191.17739</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>15348.88055</v>
+        <v>21619.51924</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>47390.8558</v>
+        <v>69974.71098</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>15358.44872</v>
+        <v>25457.98889</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>70328.87543</v>
+        <v>95402.52005000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>18126.8058</v>
+        <v>33288.2282</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>98462.82338</v>
+        <v>142662.10241</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>48167.79904</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>104387.23998</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>71849.375</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>443.5664400000001</v>
+        <v>726.56576</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>643.40155</v>
+        <v>1044.57067</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>282.76917</v>
+        <v>953.82902</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>743.4670399999999</v>
+        <v>1371.53973</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>830.3262099999999</v>
+        <v>1687.69457</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>789.5232099999999</v>
+        <v>1139.56647</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>742.44046</v>
+        <v>1148.50382</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1034.28341</v>
+        <v>1230.69564</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>983.2989000000001</v>
+        <v>2147.22555</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4202.664880000001</v>
+        <v>4905.29671</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>843.23794</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1645.24448</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3159.11</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>581.83706</v>
+        <v>1245.51699</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>890.69915</v>
+        <v>1002.33821</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>749.09855</v>
+        <v>1009.58819</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2678.19754</v>
+        <v>2895.72096</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>315.8648</v>
+        <v>598.77989</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1761.08563</v>
+        <v>8542.616969999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1111.96132</v>
+        <v>2500.67095</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>836.7988300000002</v>
+        <v>1482.27344</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>825.36148</v>
+        <v>1354.34128</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1920.33934</v>
+        <v>14617.94991</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1089.91885</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>37807.30536</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3034.031</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>9764.38508</v>
+        <v>15708.12568</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>12281.88844</v>
+        <v>16476.80714</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>62473.31893</v>
+        <v>98380.46275999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>20867.26604</v>
+        <v>27923.9167</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>14202.68954</v>
+        <v>19333.04478</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>44840.24696000001</v>
+        <v>60292.52754</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>13504.04694</v>
+        <v>21808.81412</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>68457.79319</v>
+        <v>92689.55096999998</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>16318.14542</v>
+        <v>29786.66137</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>92339.81916</v>
+        <v>123138.85579</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>46234.64225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>64934.69014</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>65656.234</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>28818.72004</v>
+        <v>27906.5687</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>43409.6363</v>
+        <v>93814.75468000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3591.527409999998</v>
+        <v>-19953.33135</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>38115.24973</v>
+        <v>45086.83716</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>58176.19632</v>
+        <v>76504.82102000002</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>32147.29926</v>
+        <v>45908.6611</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>67221.32423</v>
+        <v>100785.3112</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2170.76778</v>
+        <v>26779.0865</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>62188.49447999999</v>
+        <v>95036.39441000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>208242.56642</v>
+        <v>219697.22642</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>248692.50306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>284732.92406</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>382628.034</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>11303.95613</v>
+        <v>13100.10138</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12698.93876</v>
+        <v>18020.00668</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>15185.98393</v>
+        <v>19033.62906</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>15602.30136</v>
+        <v>18977.9849</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>18184.28297</v>
+        <v>24148.81985</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>19091.31338</v>
+        <v>24762.91797</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>19591.45872</v>
+        <v>28643.88258</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>21455.59136</v>
+        <v>31413.60344</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>21582.75701</v>
+        <v>33204.11412000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>68517.11963</v>
+        <v>89166.07047000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>70004.59688</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>96415.35235999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>102014.091</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>17514.76391</v>
+        <v>14806.46732</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>30710.69754</v>
+        <v>75794.74800000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-11594.45652</v>
+        <v>-38986.96041</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>22512.94837</v>
+        <v>26108.85226</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>39991.91335</v>
+        <v>52356.00117</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>13055.98588</v>
+        <v>21145.74313</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>47629.86551</v>
+        <v>72141.42862000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-19284.82358</v>
+        <v>-4634.51694</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>40605.73747</v>
+        <v>61832.28029</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>139725.44679</v>
+        <v>130531.15595</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>178687.90618</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>188317.5717</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>280613.943</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>6055</v>
+        <v>6446</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>5860</v>
+        <v>6329</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5778</v>
+        <v>6282</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5590</v>
+        <v>6190</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6051</v>
+        <v>6776</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5925</v>
+        <v>6839</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5734</v>
+        <v>6889</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5908</v>
+        <v>7311</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>5848</v>
+        <v>7414</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7929</v>
+        <v>9613</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10324</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>